--- a/cypress/fixtures/ordering-scenarios-old.xlsx
+++ b/cypress/fixtures/ordering-scenarios-old.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\GitHub\cy-pos-otc-functionality\cypress\fixtures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LST-USER\Documents\GitHub\cy-pos-otc-functionality\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250A181E-D98E-49B4-B0A3-33CC26FDFB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="210"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ordering-scenario" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -47,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -359,19 +369,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -391,7 +401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>76</v>
       </c>
@@ -413,7 +423,7 @@
         <v>82.785714285714278</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>204</v>
       </c>
@@ -436,7 +446,7 @@
         <v>201.81428571428572</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>210</v>
       </c>
@@ -448,18 +458,17 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>18.749999999999996</v>
+        <v>18.760000000000002</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1">
         <f>A4-B4+D4</f>
-        <v>186.75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>186.76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>87</v>
       </c>
@@ -484,7 +493,7 @@
         <v>68.357142857142861</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>222</v>
       </c>
@@ -509,7 +518,7 @@
         <v>174.42857142857144</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>96</v>
       </c>
@@ -533,7 +542,7 @@
         <v>85.714285714285722</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>109</v>
       </c>
@@ -556,7 +565,7 @@
         <v>96.932142857142864</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>150</v>
       </c>
@@ -580,7 +589,7 @@
         <v>147.32142857142858</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>599</v>
       </c>
@@ -605,7 +614,7 @@
         <v>619.13552295918373</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>799</v>
       </c>
@@ -630,7 +639,7 @@
         <v>806.8268494897959</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>399</v>
       </c>
@@ -655,7 +664,7 @@
         <v>317.44419642857144</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>499</v>
       </c>
@@ -680,7 +689,7 @@
         <v>397.00414540816331</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>300</v>
       </c>
@@ -702,7 +711,7 @@
         <v>326.78571428571428</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>170</v>
       </c>
@@ -725,7 +734,7 @@
         <v>168.17857142857142</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>42</v>
       </c>
@@ -748,7 +757,7 @@
         <v>37.35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>320</v>
       </c>
@@ -773,7 +782,7 @@
         <v>254.59183673469391</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>30</v>
       </c>
@@ -798,7 +807,7 @@
         <v>23.867984693877549</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>60</v>
       </c>
@@ -822,7 +831,7 @@
         <v>54.107142857142854</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>49</v>
       </c>
@@ -845,7 +854,7 @@
         <v>43.575000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>50</v>
       </c>
@@ -868,7 +877,7 @@
         <v>49.107142857142861</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>599</v>
       </c>
@@ -893,7 +902,7 @@
         <v>613.21428571428578</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>799</v>
       </c>
